--- a/jobData.xlsx
+++ b/jobData.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -606,6 +606,315 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>양돈업</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>육성사 관리</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1명
+입사지원
+현황통계</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>전북특별자치도   고창군   성송면 학천로 657</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>시급 9,860원 이상
+임금 협의가능</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>https://www.work.go.kr/empInfo/empInfoSrch/detail/empDetailAuthView.do?searchInfoType=VALIDATION&amp;callPage=detail&amp;wantedAuthNo=K161332401240001&amp;rtnTarget=list2</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>연근해 어업</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>어업관련단순노무</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>4명
+입사지원
+현황통계</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>충청남도   보령시   명천로 94, 105동 703호 (명천동, 더 베스트 예미지)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>월급 2,500,000원 이상 ~
+2,500,000원 이하
+기본급 기준 상여금 별도 : 100%
+임금 협의가능</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>https://www.work.go.kr/empInfo/empInfoSrch/detail/empDetailAuthView.do?searchInfoType=VALIDATION&amp;callPage=detail&amp;wantedAuthNo=K172222401240002&amp;rtnTarget=list6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>어업</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>시급 9,860원 이상</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>https://www.work.go.kr/empInfo/empInfoSrch/detail/empDetailAuthView.do?searchInfoType=VALIDATION&amp;callPage=detail&amp;wantedAuthNo=K162212401240001&amp;rtnTarget=list3</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>편조원단 제조업</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>알루미늄 사상반에서 사상 및 관리자 구합니다.</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1명
+입사지원
+현황통계</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>대구광역시   달성군   하빈면 하빈남로 372-5, yj테크</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>월급 2,600,000원 이상 ~
+2,800,000원 이하
+임금 협의가능</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>https://www.work.go.kr/empInfo/empInfoSrch/detail/empDetailAuthView.do?searchInfoType=VALIDATION&amp;callPage=detail&amp;wantedAuthNo=K151522401240004&amp;rtnTarget=list9</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>작물재배 및 축산 복합농업</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>토마토, 오이 등 재배</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1명
+입사지원
+현황통계</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>인천광역시   계양구   방축로 21, 방축동 102 (방축동)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>시급 9,860원 이상</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>https://www.work.go.kr/empInfo/empInfoSrch/detail/empDetailAuthView.do?searchInfoType=VALIDATION&amp;callPage=detail&amp;wantedAuthNo=K150112401240005&amp;rtnTarget=list17</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>그 외 기타 금속가공업</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>토마토, 오이 등 재배</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1명
+입사지원
+현황통계</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>충청남도   아산시   둔포면 운교길126번길 39</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>시급 9,860원 이상</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>https://www.work.go.kr/empInfo/empInfoSrch/detail/empDetailAuthView.do?searchInfoType=VALIDATION&amp;callPage=detail&amp;wantedAuthNo=K172122401240002&amp;rtnTarget=list18</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>주식회사세경글로텍</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>❍ 직무내용 : 이차전지용 분리막 품질검사 업무
+❍ 모집인원 : 15명
+❍ 근무형태 : 주 40시간제, 4조3교대(4일근무/2일휴무, 4일근무/1일휴무, 4일근무/1일휴무)
+❍ 연봉 : 연봉 3,800만원정도(제시된 연봉은 기본연봉이며 상여금 포함 금액임), 연장근로 수당 별도
+❍ 복리후생 : 4대보험, 퇴직금, 통근버스, 3식제공, 종합검진, 사업장 외 거주자 대상 사택3개월 제공 후 거주비지원 20만원(월/2년간), 양육수당 16만원/자녀1인(월)
+❍ 근로조건 : 인턴 3개월(인턴기간 동안 280만원정도, 연장근로 수당 별도), 평가 후 합격자에 한해 정규직 전환, 군필 및 면제자, 장기근속자 우대</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>15명
+입사지원
+현황통계</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>충청북도   청주시   청원구 오창읍 과학산업5로 67</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>연봉 38,000,000원 이상 ~
+38,000,000원 이하</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>https://www.work.go.kr/empInfo/empInfoSrch/detail/empDetailAuthView.do?searchInfoType=VALIDATION&amp;callPage=detail&amp;wantedAuthNo=K171112401240004&amp;rtnTarget=list20</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>광물처리 및 취급장비 제조업</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>종량기 / 감량기 단순조립 / 제조
+식사 제공
+4대 보험, 퇴직금 기타 복리후생 적용
+* 워크넷사이트에서 입사지원하시면 연락드립니다.</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2명
+입사지원
+현황통계</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>경기도   양주시   광적면 광적로 201-35</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>월급 2,070,000원 이상</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>https://www.work.go.kr/empInfo/empInfoSrch/detail/empDetailAuthView.do?searchInfoType=VALIDATION&amp;callPage=detail&amp;wantedAuthNo=K151582401240006&amp;rtnTarget=list33</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>그 외 기타 달리 분류되지 않은 제품 제조업</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>현대중공업 해양플랜드 도장(후행도장)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>10명
+입사지원
+현황통계</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>울산광역시   동구   방어진순환도로 400 (방어동)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>일급 130,000원 이상 ~
+130,000원 이하
+임금 협의가능</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>https://www.work.go.kr/empInfo/empInfoSrch/detail/empDetailAuthView.do?searchInfoType=VALIDATION&amp;callPage=detail&amp;wantedAuthNo=K131212401240005&amp;rtnTarget=list34</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/jobData.xlsx
+++ b/jobData.xlsx
@@ -413,13 +413,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="20" customWidth="1" min="1" max="1"/>
     <col width="50" customWidth="1" min="2" max="2"/>
@@ -463,12 +463,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>농업</t>
+          <t>그 외 기타 플라스틱 제품 제조업</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>작물재배, 수확, 포장, 단순노무직</t>
+          <t>- 일회용 플라스틱 식품용기 제조업체
+- 기술 배우면서 일하실분 모집 
+- 주.야간 2교대로 근무
+- 초과근무(필수)_초과수당1.5배적용
+- 금형교체 및 제품포장.이송.적재 업무등
+- 주5일근무, 국경일휴무, 연차, 퇴직연금
+- 1종운전면허소지자
+- 전동지게차 사용가능자
+- 책임감있고 근면 성실한분 지원바랍니다.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,438 +488,349 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>서울특별시   금천구   가산디지털2로 14  14, (가산동) (가산동)</t>
+          <t>충청북도   음성군   대소면 수태로 95-14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>월급 2,500,000원 이상 ~
-2,500,000원 이하
+          <t>월급 3,000,000원 이상 ~
+3,400,000원 이하
 임금 협의가능</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://www.work.go.kr/empInfo/empInfoSrch/detail/empDetailAuthView.do?searchInfoType=VALIDATION&amp;callPage=detail&amp;wantedAuthNo=K151622401220046&amp;rtnTarget=list3</t>
+          <t>https://www.work.go.kr/empInfo/empInfoSrch/detail/empDetailAuthView.do?searchInfoType=VALIDATION&amp;callPage=detail&amp;wantedAuthNo=K151582401240011&amp;rtnTarget=list6</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>기타 절연선 및 케이블 제조업</t>
+          <t>건설용 석제품 제조업</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>전기전선제조라인 단순작업
-주5일근무
-주야2교대 연장근로 포함 시 연봉 4천만원내외</t>
+          <t>화강석 재단, 가공, 마감원 구합니다.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
+        <is>
+          <t>3명
+입사지원
+현황통계</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>전라북도   익산시   함열읍 용왕길 68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>시급 9,860원 이상
+임금 협의가능</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>https://www.work.go.kr/empInfo/empInfoSrch/detail/empDetailAuthView.do?searchInfoType=VALIDATION&amp;callPage=detail&amp;wantedAuthNo=K161232401240016&amp;rtnTarget=list8</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>그 외 기타 플라스틱 제품 제조업</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>* 일반 사무직(입고 출고전표관리)
+* 영업관리 업무지원사무직
+* 간단한 엑셀, 한글 작업(서류작업)
+*수습 3개월
+*신입 2,300,000~</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>1명
 입사지원
 현황통계</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>전라남도   무안군   삼향읍 오룡길 1, 전남도청비둘기어린이집</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>월급 1,300,000원 이상 ~
-1,300,000원 이하
-기본급 기준 상여금 별도 : 10%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>https://www.work.go.kr/empInfo/empInfoSrch/detail/empDetailAuthView.do?searchInfoType=VALIDATION&amp;callPage=detail&amp;wantedAuthNo=K171112401220096&amp;rtnTarget=list6</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>양돈업</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>양돈장현장관리</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>충청북도   음성군   대소면 수태로 95-14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>월급 2,300,000원 이상
+기본급 기준 상여금 별도 : 50%
+임금 협의가능</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>https://www.work.go.kr/empInfo/empInfoSrch/detail/empDetailAuthView.do?searchInfoType=VALIDATION&amp;callPage=detail&amp;wantedAuthNo=K151582401240011&amp;rtnTarget=list6</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>건설용 석제품 제조업</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>대형출력기(플로터)용 미디어(용지) 납품업무
+납품지역 : 서울 및 수도권</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3명
+입사지원
+현황통계</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>전라북도   익산시   함열읍 용왕길 68</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>시급 9,860원 이상
+임금 협의가능</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>https://www.work.go.kr/empInfo/empInfoSrch/detail/empDetailAuthView.do?searchInfoType=VALIDATION&amp;callPage=detail&amp;wantedAuthNo=K161232401240016&amp;rtnTarget=list8</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>기타 석제품 제조업</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>https://www.work.go.kr/empInfo/empInfoSrch/detail/empDetailAuthView.do?searchInfoType=VALIDATION&amp;callPage=detail&amp;wantedAuthNo=K161232401240017&amp;rtnTarget=list1</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>기타 인쇄물 출판업</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>스크린 인쇄기 보조업무</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>1명
 입사지원
 현황통계</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>전라남도   무안군   운남면 와우로 178-18</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>연봉 40,000,000원 이상 ~
-45,000,000원 이하
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>경기도   안양시   동안구 시민대로 361, 1201호 (관양동, 에이스평촌타워)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>시급 9,860원 이상</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>https://www.work.go.kr/empInfo/empInfoSrch/detail/empDetailAuthView.do?searchInfoType=VALIDATION&amp;callPage=detail&amp;wantedAuthNo=K151342401240014&amp;rtnTarget=list8</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>그 외 기타 가구 제조업</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>가구제작 단순 노무 업무</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2명
+입사지원
+현황통계</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>경기도   김포시   대곶면 소래로97번길 108</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>월급 2,131,000원 이상 ~
+2,131,000원 이하</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>https://www.work.go.kr/empInfo/empInfoSrch/detail/empDetailAuthView.do?searchInfoType=VALIDATION&amp;callPage=detail&amp;wantedAuthNo=K151222401240029&amp;rtnTarget=list9</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>제조업 회사 본부</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>가구제작 단순 노무 업무</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>3명
+입사지원
+현황통계</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>인천광역시   서구   원전로48번길 27, 27 (경서동)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>시급 9,860원 이상
 임금 협의가능</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>https://www.work.go.kr/empInfo/empInfoSrch/detail/empDetailAuthView.do?searchInfoType=VALIDATION&amp;callPage=detail&amp;wantedAuthNo=K162122401220047&amp;rtnTarget=list7</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>부정형 내화 요업제품 제조업</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>직무내용 : 중자,주물부재료 생산직 사원 (초보 구직자가능)
-우대사항 : 중자 및 주물 생산관련 유경험 구직자 우대</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>https://www.work.go.kr/empInfo/empInfoSrch/detail/empDetailAuthView.do?searchInfoType=VALIDATION&amp;callPage=detail&amp;wantedAuthNo=K150122401240027&amp;rtnTarget=list10</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>농업</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>&lt;모터 조립 기능공 모집&gt;
+1.직무내용
+  1) 소형 저/고압 전동기(모터) 조립 
+  2) 완제품 포장 및 출하
+2. 자격요건
+ 1) 소형 저/고압 전동기(모터) 조립 유경험자 우대
+ 2) 전기기능사 자격증 소지자 우대
+ 3) 제조업 현장 유경험자
+ 4) 초보자 가능(배우면서 일할 수 있음)
+ 5) 제품포장/출고 업무 지원자도 채용
+ 6) 시급은 경력에 따라 조정가능함.
+ 7) 연차사용은 자유롭고, 연말 성과상여금 지급
+ 8) 자차소유자</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>5명
 입사지원
 현황통계</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>경상남도   창원시   진해구 남영로522번길 55 (남양동)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>시급 9,860원 이상 ~
-9,860원 이하</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>https://www.work.go.kr/empInfo/empInfoSrch/detail/empDetailAuthView.do?searchInfoType=VALIDATION&amp;callPage=detail&amp;wantedAuthNo=K131132401220094&amp;rtnTarget=list9</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>양돈업</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>육성사 관리</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>경상남도   진주시   금산면 금산순환로426번길 13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>시급 9,860원 이상
+임금 협의가능</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>https://www.work.go.kr/empInfo/empInfoSrch/detail/empDetailAuthView.do?searchInfoType=VALIDATION&amp;callPage=detail&amp;wantedAuthNo=K131412401240022&amp;rtnTarget=list2</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>양식 어업</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1. 모집 직종 : 보조운전원(시간제)_1명
+2. 자격요건
+ 가. 근무시간 : 8:30-13:00 /16:00-20:30 - 1일 4시간(휴게시간 30분, 근무시간조정가능)
+ 나. 월~금 주5일 근무 (토, 일 휴무)/ 주중 공휴일 근무 시 수당지급
+ 다. 응모자격 : 운전면허 1종 보통 소지자(스타렉스 운전가능자) 
+ 라. 연령제한 : 제한없음             마. 경력사항 : 제한없음
+ 바. 급여관련 : 면접 후 논의       사. 근무형태 : 계약직
+ 아. 계약기간 : 3개월 수습 후 논의
+3. 제출서류(공통) 
+ 가. 입사지원서 및 개인정보 제공 및 수집 동의서 (입사지원서에 사진부착)
+ 나. 관련 자격증/ 경력증명서(*해당자에 한함)
+4. 접수기한 : 2023.09.16(토) - 2023.09.24(일) 17:00까지  
+5. 전형방법 
+ 가. 1차 서류전형 
+ 나. 2차 면접(서류합격자에 한하여 개별통보/ 서류접수 후 수시면접 가능)
+6. 서류접수 : 이메일 접수(tnv4477@naver.com) 
+7. 문 의 : 02-464-4477 / 인사담당자</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>1명
 입사지원
 현황통계</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>전북특별자치도   고창군   성송면 학천로 657</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>시급 9,860원 이상
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>서울특별시   성동구   왕십리로5길 3, 3층 구립성수1가2동서울숲데이케어센터 (성수동1가, 성수1가제2동 공공복합청사)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>월급 1,035,300원 이상 ~
+1,035,300원 이하
 임금 협의가능</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>https://www.work.go.kr/empInfo/empInfoSrch/detail/empDetailAuthView.do?searchInfoType=VALIDATION&amp;callPage=detail&amp;wantedAuthNo=K161332401240001&amp;rtnTarget=list2</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>연근해 어업</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>어업관련단순노무</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>4명
-입사지원
-현황통계</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>충청남도   보령시   명천로 94, 105동 703호 (명천동, 더 베스트 예미지)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>월급 2,500,000원 이상 ~
-2,500,000원 이하
-기본급 기준 상여금 별도 : 100%
-임금 협의가능</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>https://www.work.go.kr/empInfo/empInfoSrch/detail/empDetailAuthView.do?searchInfoType=VALIDATION&amp;callPage=detail&amp;wantedAuthNo=K172222401240002&amp;rtnTarget=list6</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>어업</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>시급 9,860원 이상</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>https://www.work.go.kr/empInfo/empInfoSrch/detail/empDetailAuthView.do?searchInfoType=VALIDATION&amp;callPage=detail&amp;wantedAuthNo=K162212401240001&amp;rtnTarget=list3</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>편조원단 제조업</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>알루미늄 사상반에서 사상 및 관리자 구합니다.</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1명
-입사지원
-현황통계</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>대구광역시   달성군   하빈면 하빈남로 372-5, yj테크</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>월급 2,600,000원 이상 ~
-2,800,000원 이하
-임금 협의가능</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>https://www.work.go.kr/empInfo/empInfoSrch/detail/empDetailAuthView.do?searchInfoType=VALIDATION&amp;callPage=detail&amp;wantedAuthNo=K151522401240004&amp;rtnTarget=list9</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>작물재배 및 축산 복합농업</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>토마토, 오이 등 재배</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1명
-입사지원
-현황통계</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>인천광역시   계양구   방축로 21, 방축동 102 (방축동)</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>시급 9,860원 이상</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>https://www.work.go.kr/empInfo/empInfoSrch/detail/empDetailAuthView.do?searchInfoType=VALIDATION&amp;callPage=detail&amp;wantedAuthNo=K150112401240005&amp;rtnTarget=list17</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>그 외 기타 금속가공업</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>토마토, 오이 등 재배</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1명
-입사지원
-현황통계</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>충청남도   아산시   둔포면 운교길126번길 39</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>시급 9,860원 이상</t>
-        </is>
-      </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://www.work.go.kr/empInfo/empInfoSrch/detail/empDetailAuthView.do?searchInfoType=VALIDATION&amp;callPage=detail&amp;wantedAuthNo=K172122401240002&amp;rtnTarget=list18</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>주식회사세경글로텍</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>❍ 직무내용 : 이차전지용 분리막 품질검사 업무
-❍ 모집인원 : 15명
-❍ 근무형태 : 주 40시간제, 4조3교대(4일근무/2일휴무, 4일근무/1일휴무, 4일근무/1일휴무)
-❍ 연봉 : 연봉 3,800만원정도(제시된 연봉은 기본연봉이며 상여금 포함 금액임), 연장근로 수당 별도
-❍ 복리후생 : 4대보험, 퇴직금, 통근버스, 3식제공, 종합검진, 사업장 외 거주자 대상 사택3개월 제공 후 거주비지원 20만원(월/2년간), 양육수당 16만원/자녀1인(월)
-❍ 근로조건 : 인턴 3개월(인턴기간 동안 280만원정도, 연장근로 수당 별도), 평가 후 합격자에 한해 정규직 전환, 군필 및 면제자, 장기근속자 우대</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>15명
-입사지원
-현황통계</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>충청북도   청주시   청원구 오창읍 과학산업5로 67</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>연봉 38,000,000원 이상 ~
-38,000,000원 이하</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>https://www.work.go.kr/empInfo/empInfoSrch/detail/empDetailAuthView.do?searchInfoType=VALIDATION&amp;callPage=detail&amp;wantedAuthNo=K171112401240004&amp;rtnTarget=list20</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>광물처리 및 취급장비 제조업</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>종량기 / 감량기 단순조립 / 제조
-식사 제공
-4대 보험, 퇴직금 기타 복리후생 적용
-* 워크넷사이트에서 입사지원하시면 연락드립니다.</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>2명
-입사지원
-현황통계</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>경기도   양주시   광적면 광적로 201-35</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>월급 2,070,000원 이상</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>https://www.work.go.kr/empInfo/empInfoSrch/detail/empDetailAuthView.do?searchInfoType=VALIDATION&amp;callPage=detail&amp;wantedAuthNo=K151582401240006&amp;rtnTarget=list33</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>그 외 기타 달리 분류되지 않은 제품 제조업</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>현대중공업 해양플랜드 도장(후행도장)</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>10명
-입사지원
-현황통계</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>울산광역시   동구   방어진순환도로 400 (방어동)</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>일급 130,000원 이상 ~
-130,000원 이하
-임금 협의가능</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>https://www.work.go.kr/empInfo/empInfoSrch/detail/empDetailAuthView.do?searchInfoType=VALIDATION&amp;callPage=detail&amp;wantedAuthNo=K131212401240005&amp;rtnTarget=list34</t>
+          <t>https://www.work.go.kr/empInfo/empInfoSrch/detail/empDetailAuthView.do?searchInfoType=VALIDATION&amp;callPage=detail&amp;wantedAuthNo=K162142401240009&amp;rtnTarget=list7</t>
         </is>
       </c>
     </row>
